--- a/biology/Botanique/Orpin_blanc/Orpin_blanc.xlsx
+++ b/biology/Botanique/Orpin_blanc/Orpin_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sedum album
 L'Orpin blanc (Sedum album), aussi appelé Sédum blanc, est une plante vivace de la famille des Crassulacées.
@@ -512,11 +524,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une petite plante grasse (5 à 20 cm) aux feuilles alternes, de section ovale.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Orpin_blanc</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orpin_blanc</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : blanc
 Période de floraison : juillet-septembre
 Inflorescence : cyme multipare
@@ -534,38 +583,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Orpin_blanc</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Orpin_blanc</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire de l'Ancien Monde : Europe centrale et méridionale de la France à l'Ukraine et à la Grèce, Afrique du Nord (Maghreb) et Asie Mineure (Turquie).
-En France, l'Orpin blanc se retrouve sur l'ensemble du territoire métropolitain, en particulier dans la moitié Est et les Pyrénées[1]. En Suisse, on le rencontre dans le Jura, les vallées alpines et sur une partie du Plateau[2].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -587,17 +604,126 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire de l'Ancien Monde : Europe centrale et méridionale de la France à l'Ukraine et à la Grèce, Afrique du Nord (Maghreb) et Asie Mineure (Turquie).
+En France, l'Orpin blanc se retrouve sur l'ensemble du territoire métropolitain, en particulier dans la moitié Est et les Pyrénées. En Suisse, on le rencontre dans le Jura, les vallées alpines et sur une partie du Plateau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Orpin_blanc</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orpin_blanc</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Médicinale
-C'est avec cette espèce à fleurs blanches et à suc non âcre que l'on prépare un onguent dit « populeum » aux vertus cicatrisantes et adoucissantes[3],[4].
-En architecture
-Cet orpin fait partie des sédums utilisés pour végétaliser les toitures végétales.
-Alimentaire
-Les feuilles se mangent crues en salade ou cuites[5].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Médicinale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est avec cette espèce à fleurs blanches et à suc non âcre que l'on prépare un onguent dit « populeum » aux vertus cicatrisantes et adoucissantes,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Orpin_blanc</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orpin_blanc</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En architecture</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet orpin fait partie des sédums utilisés pour végétaliser les toitures végétales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Orpin_blanc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orpin_blanc</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Alimentaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles se mangent crues en salade ou cuites.
 </t>
         </is>
       </c>
